--- a/files/separadas/repeat_p1.xlsx
+++ b/files/separadas/repeat_p1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="595">
   <si>
     <t>p1_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>005 de 2020</t>
@@ -2221,13 +2209,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S139"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,37 +2261,25 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2312,45 +2288,33 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="M2" t="s">
-        <v>597</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2359,45 +2323,33 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M3" t="s">
-        <v>597</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2406,45 +2358,33 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>597</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2453,45 +2393,33 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>597</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2500,45 +2428,33 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>597</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2547,45 +2463,33 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>597</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2594,45 +2498,33 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>597</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2641,45 +2533,33 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>597</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2688,45 +2568,33 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>597</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2735,45 +2603,33 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>597</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2782,45 +2638,33 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>597</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2829,45 +2673,33 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>597</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2876,45 +2708,33 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>597</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -2923,45 +2743,33 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M15" t="s">
-        <v>597</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2970,45 +2778,33 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>597</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -3017,45 +2813,33 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>597</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -3064,45 +2848,33 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>597</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -3111,45 +2883,33 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M19" t="s">
-        <v>597</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -3158,45 +2918,33 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>597</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -3205,45 +2953,33 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>597</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3252,45 +2988,33 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>597</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3299,45 +3023,33 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>597</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3346,45 +3058,33 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>597</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -3393,45 +3093,33 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M25" t="s">
-        <v>597</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -3440,45 +3128,33 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M26" t="s">
-        <v>597</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -3487,45 +3163,33 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M27" t="s">
-        <v>597</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -3534,45 +3198,33 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J28" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M28" t="s">
-        <v>597</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3581,45 +3233,33 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>598</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -3628,45 +3268,33 @@
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J30" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M30" t="s">
-        <v>598</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -3675,45 +3303,33 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>597</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -3722,45 +3338,33 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>597</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3769,45 +3373,33 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>597</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -3816,45 +3408,33 @@
         <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M34" t="s">
-        <v>597</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -3863,45 +3443,33 @@
         <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J35" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M35" t="s">
-        <v>597</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G36">
         <v>14</v>
@@ -3910,45 +3478,33 @@
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J36" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M36" t="s">
-        <v>597</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -3957,45 +3513,33 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>597</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G38">
         <v>17</v>
@@ -4004,45 +3548,33 @@
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J38" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M38" t="s">
-        <v>597</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G39">
         <v>18</v>
@@ -4051,45 +3583,33 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="J39" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M39" t="s">
-        <v>597</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G40">
         <v>19</v>
@@ -4098,45 +3618,33 @@
         <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J40" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M40" t="s">
-        <v>597</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -4145,45 +3653,33 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>597</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D42" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -4192,45 +3688,33 @@
         <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="J42" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M42" t="s">
-        <v>597</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G43">
         <v>20</v>
@@ -4239,45 +3723,33 @@
         <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="J43" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M43" t="s">
-        <v>597</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G44">
         <v>21</v>
@@ -4286,45 +3758,33 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J44" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M44" t="s">
-        <v>597</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G45">
         <v>22</v>
@@ -4333,45 +3793,33 @@
         <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J45" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M45" t="s">
-        <v>597</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G46">
         <v>23</v>
@@ -4380,45 +3828,33 @@
         <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M46" t="s">
-        <v>597</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G47">
         <v>23</v>
@@ -4427,45 +3863,33 @@
         <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M47" t="s">
-        <v>597</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G48">
         <v>23</v>
@@ -4474,45 +3898,33 @@
         <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M48" t="s">
-        <v>597</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -4521,45 +3933,33 @@
         <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M49" t="s">
-        <v>597</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G50">
         <v>24</v>
@@ -4568,45 +3968,33 @@
         <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M50" t="s">
-        <v>598</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -4615,45 +4003,33 @@
         <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M51" t="s">
-        <v>598</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G52">
         <v>24</v>
@@ -4662,45 +4038,33 @@
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M52" t="s">
-        <v>598</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G53">
         <v>24</v>
@@ -4709,45 +4073,33 @@
         <v>51</v>
       </c>
       <c r="I53" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J53" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M53" t="s">
-        <v>598</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G54">
         <v>24</v>
@@ -4756,45 +4108,33 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J54" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M54" t="s">
-        <v>598</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D55" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G55">
         <v>24</v>
@@ -4803,45 +4143,33 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J55" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M55" t="s">
-        <v>598</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D56" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G56">
         <v>26</v>
@@ -4850,45 +4178,33 @@
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J56" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M56" t="s">
-        <v>597</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D57" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G57">
         <v>26</v>
@@ -4897,45 +4213,33 @@
         <v>55</v>
       </c>
       <c r="I57" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J57" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M57" t="s">
-        <v>597</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D58" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G58">
         <v>27</v>
@@ -4944,45 +4248,33 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J58" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M58" t="s">
-        <v>597</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D59" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G59">
         <v>27</v>
@@ -4991,45 +4283,33 @@
         <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J59" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M59" t="s">
-        <v>597</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D60" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G60">
         <v>28</v>
@@ -5038,45 +4318,33 @@
         <v>57</v>
       </c>
       <c r="I60" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J60" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M60" t="s">
-        <v>597</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G61">
         <v>28</v>
@@ -5085,45 +4353,33 @@
         <v>57</v>
       </c>
       <c r="I61" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J61" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M61" t="s">
-        <v>597</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D62" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G62">
         <v>28</v>
@@ -5132,45 +4388,33 @@
         <v>57</v>
       </c>
       <c r="I62" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J62" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M62" t="s">
-        <v>597</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G63">
         <v>29</v>
@@ -5179,45 +4423,33 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J63" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M63" t="s">
-        <v>597</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -5226,45 +4458,33 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>597</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -5273,45 +4493,33 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>597</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G66">
         <v>30</v>
@@ -5320,45 +4528,33 @@
         <v>59</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J66" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M66" t="s">
-        <v>597</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -5367,45 +4563,33 @@
         <v>59</v>
       </c>
       <c r="I67" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J67" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M67" t="s">
-        <v>597</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G68">
         <v>30</v>
@@ -5414,45 +4598,33 @@
         <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J68" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M68" t="s">
-        <v>597</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -5461,45 +4633,33 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>597</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -5508,45 +4668,33 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>597</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -5555,45 +4703,33 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>597</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G72">
         <v>31</v>
@@ -5602,45 +4738,33 @@
         <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J72" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M72" t="s">
-        <v>597</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G73">
         <v>31</v>
@@ -5649,45 +4773,33 @@
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J73" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M73" t="s">
-        <v>597</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G74">
         <v>32</v>
@@ -5696,45 +4808,33 @@
         <v>61</v>
       </c>
       <c r="I74" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J74" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M74" t="s">
-        <v>597</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G75">
         <v>32</v>
@@ -5743,45 +4843,33 @@
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J75" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M75" t="s">
-        <v>597</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G76">
         <v>32</v>
@@ -5790,45 +4878,33 @@
         <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J76" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M76" t="s">
-        <v>597</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G77">
         <v>32</v>
@@ -5837,45 +4913,33 @@
         <v>61</v>
       </c>
       <c r="I77" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J77" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M77" t="s">
-        <v>597</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G78">
         <v>33</v>
@@ -5884,45 +4948,33 @@
         <v>63</v>
       </c>
       <c r="I78" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J78" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M78" t="s">
-        <v>597</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G79">
         <v>33</v>
@@ -5931,45 +4983,33 @@
         <v>63</v>
       </c>
       <c r="I79" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J79" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M79" t="s">
-        <v>597</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G80">
         <v>33</v>
@@ -5978,45 +5018,33 @@
         <v>63</v>
       </c>
       <c r="I80" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J80" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M80" t="s">
-        <v>597</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G81">
         <v>33</v>
@@ -6025,45 +5053,33 @@
         <v>63</v>
       </c>
       <c r="I81" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J81" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M81" t="s">
-        <v>597</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G82">
         <v>33</v>
@@ -6072,45 +5088,33 @@
         <v>63</v>
       </c>
       <c r="I82" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J82" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M82" t="s">
-        <v>597</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G83">
         <v>34</v>
@@ -6119,45 +5123,33 @@
         <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J83" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M83" t="s">
-        <v>597</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G84">
         <v>34</v>
@@ -6166,45 +5158,33 @@
         <v>64</v>
       </c>
       <c r="I84" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J84" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M84" t="s">
-        <v>597</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G85">
         <v>36</v>
@@ -6213,45 +5193,33 @@
         <v>77</v>
       </c>
       <c r="I85" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J85" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M85" t="s">
-        <v>597</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G86">
         <v>37</v>
@@ -6260,45 +5228,33 @@
         <v>78</v>
       </c>
       <c r="I86" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J86" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M86" t="s">
-        <v>597</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G87">
         <v>37</v>
@@ -6307,45 +5263,33 @@
         <v>78</v>
       </c>
       <c r="I87" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J87" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M87" t="s">
-        <v>597</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G88">
         <v>38</v>
@@ -6354,45 +5298,33 @@
         <v>80</v>
       </c>
       <c r="I88" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J88" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M88" t="s">
-        <v>597</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G89">
         <v>39</v>
@@ -6401,45 +5333,33 @@
         <v>81</v>
       </c>
       <c r="I89" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J89" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M89" t="s">
-        <v>597</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G90">
         <v>41</v>
@@ -6448,45 +5368,33 @@
         <v>83</v>
       </c>
       <c r="I90" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J90" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M90" t="s">
-        <v>597</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G91">
         <v>42</v>
@@ -6495,45 +5403,33 @@
         <v>84</v>
       </c>
       <c r="I91" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J91" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M91" t="s">
-        <v>597</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D92" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G92">
         <v>42</v>
@@ -6542,45 +5438,33 @@
         <v>84</v>
       </c>
       <c r="I92" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="J92" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M92" t="s">
-        <v>597</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G93">
         <v>44</v>
@@ -6589,45 +5473,33 @@
         <v>87</v>
       </c>
       <c r="I93" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J93" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M93" t="s">
-        <v>597</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G94">
         <v>44</v>
@@ -6636,45 +5508,33 @@
         <v>87</v>
       </c>
       <c r="I94" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J94" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M94" t="s">
-        <v>597</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G95">
         <v>44</v>
@@ -6683,45 +5543,33 @@
         <v>87</v>
       </c>
       <c r="I95" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J95" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M95" t="s">
-        <v>597</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D96" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G96">
         <v>44</v>
@@ -6730,45 +5578,33 @@
         <v>87</v>
       </c>
       <c r="I96" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J96" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M96" t="s">
-        <v>597</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G97">
         <v>45</v>
@@ -6777,45 +5613,33 @@
         <v>88</v>
       </c>
       <c r="I97" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J97" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M97" t="s">
-        <v>598</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G98">
         <v>45</v>
@@ -6824,45 +5648,33 @@
         <v>88</v>
       </c>
       <c r="I98" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J98" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M98" t="s">
-        <v>598</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C99" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G99">
         <v>45</v>
@@ -6871,45 +5683,33 @@
         <v>88</v>
       </c>
       <c r="I99" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J99" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M99" t="s">
-        <v>598</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G100">
         <v>45</v>
@@ -6918,45 +5718,33 @@
         <v>88</v>
       </c>
       <c r="I100" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J100" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M100" t="s">
-        <v>598</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G101">
         <v>45</v>
@@ -6965,45 +5753,33 @@
         <v>88</v>
       </c>
       <c r="I101" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J101" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M101" t="s">
-        <v>598</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G102">
         <v>46</v>
@@ -7012,45 +5788,33 @@
         <v>90</v>
       </c>
       <c r="I102" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J102" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M102" t="s">
-        <v>597</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D103" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G103">
         <v>46</v>
@@ -7059,45 +5823,33 @@
         <v>90</v>
       </c>
       <c r="I103" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J103" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M103" t="s">
-        <v>597</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D104" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G104">
         <v>46</v>
@@ -7106,45 +5858,33 @@
         <v>90</v>
       </c>
       <c r="I104" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J104" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M104" t="s">
-        <v>597</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D105" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G105">
         <v>46</v>
@@ -7153,45 +5893,33 @@
         <v>90</v>
       </c>
       <c r="I105" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J105" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M105" t="s">
-        <v>597</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D106" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G106">
         <v>47</v>
@@ -7200,45 +5928,33 @@
         <v>91</v>
       </c>
       <c r="I106" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J106" s="2">
         <v>45043.91625</v>
       </c>
       <c r="M106" t="s">
-        <v>597</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D107" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G107">
         <v>48</v>
@@ -7247,45 +5963,33 @@
         <v>92</v>
       </c>
       <c r="I107" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J107" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M107" t="s">
-        <v>597</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D108" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G108">
         <v>48</v>
@@ -7294,45 +5998,33 @@
         <v>92</v>
       </c>
       <c r="I108" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J108" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M108" t="s">
-        <v>597</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D109" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G109">
         <v>49</v>
@@ -7341,45 +6033,33 @@
         <v>93</v>
       </c>
       <c r="I109" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="J109" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M109" t="s">
-        <v>597</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D110" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G110">
         <v>50</v>
@@ -7388,45 +6068,33 @@
         <v>94</v>
       </c>
       <c r="I110" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J110" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M110" t="s">
-        <v>597</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D111" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G111">
         <v>51</v>
@@ -7435,45 +6103,33 @@
         <v>95</v>
       </c>
       <c r="I111" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J111" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M111" t="s">
-        <v>597</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D112" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G112">
         <v>51</v>
@@ -7482,45 +6138,33 @@
         <v>95</v>
       </c>
       <c r="I112" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J112" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M112" t="s">
-        <v>597</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G113">
         <v>51</v>
@@ -7529,45 +6173,33 @@
         <v>95</v>
       </c>
       <c r="I113" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J113" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M113" t="s">
-        <v>597</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D114" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G114">
         <v>53</v>
@@ -7576,45 +6208,33 @@
         <v>98</v>
       </c>
       <c r="I114" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J114" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M114" t="s">
-        <v>598</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D115" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G115">
         <v>54</v>
@@ -7623,45 +6243,33 @@
         <v>99</v>
       </c>
       <c r="I115" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J115" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M115" t="s">
-        <v>597</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G116">
         <v>55</v>
@@ -7670,45 +6278,33 @@
         <v>100</v>
       </c>
       <c r="I116" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J116" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M116" t="s">
-        <v>597</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G117">
         <v>56</v>
@@ -7717,45 +6313,33 @@
         <v>101</v>
       </c>
       <c r="I117" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J117" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M117" t="s">
-        <v>597</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G118">
         <v>57</v>
@@ -7764,45 +6348,33 @@
         <v>102</v>
       </c>
       <c r="I118" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J118" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M118" t="s">
-        <v>597</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D119" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G119">
         <v>57</v>
@@ -7811,45 +6383,33 @@
         <v>102</v>
       </c>
       <c r="I119" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J119" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M119" t="s">
-        <v>597</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D120" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G120">
         <v>58</v>
@@ -7858,45 +6418,33 @@
         <v>103</v>
       </c>
       <c r="I120" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J120" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M120" t="s">
-        <v>597</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D121" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G121">
         <v>59</v>
@@ -7905,45 +6453,33 @@
         <v>104</v>
       </c>
       <c r="I121" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J121" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M121" t="s">
-        <v>597</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G122">
         <v>60</v>
@@ -7952,45 +6488,33 @@
         <v>105</v>
       </c>
       <c r="I122" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J122" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M122" t="s">
-        <v>597</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D123" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G123">
         <v>64</v>
@@ -7999,45 +6523,33 @@
         <v>111</v>
       </c>
       <c r="I123" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J123" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M123" t="s">
-        <v>597</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C124" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D124" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G124">
         <v>65</v>
@@ -8046,45 +6558,33 @@
         <v>113</v>
       </c>
       <c r="I124" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J124" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M124" t="s">
-        <v>597</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D125" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G125">
         <v>67</v>
@@ -8093,45 +6593,33 @@
         <v>115</v>
       </c>
       <c r="I125" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J125" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M125" t="s">
-        <v>598</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G126">
         <v>69</v>
@@ -8140,45 +6628,33 @@
         <v>118</v>
       </c>
       <c r="I126" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J126" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M126" t="s">
-        <v>597</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D127" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G127">
         <v>70</v>
@@ -8187,45 +6663,33 @@
         <v>119</v>
       </c>
       <c r="I127" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M127" t="s">
-        <v>597</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D128" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G128">
         <v>70</v>
@@ -8234,45 +6698,33 @@
         <v>119</v>
       </c>
       <c r="I128" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M128" t="s">
-        <v>597</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D129" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G129">
         <v>70</v>
@@ -8281,45 +6733,33 @@
         <v>119</v>
       </c>
       <c r="I129" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M129" t="s">
-        <v>597</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G130">
         <v>70</v>
@@ -8328,45 +6768,33 @@
         <v>119</v>
       </c>
       <c r="I130" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M130" t="s">
-        <v>597</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D131" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G131">
         <v>70</v>
@@ -8375,45 +6803,33 @@
         <v>119</v>
       </c>
       <c r="I131" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M131" t="s">
-        <v>597</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D132" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G132">
         <v>70</v>
@@ -8422,45 +6838,33 @@
         <v>119</v>
       </c>
       <c r="I132" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M132" t="s">
-        <v>597</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D133" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G133">
         <v>70</v>
@@ -8469,45 +6873,33 @@
         <v>119</v>
       </c>
       <c r="I133" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M133" t="s">
-        <v>597</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D134" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G134">
         <v>70</v>
@@ -8516,45 +6908,33 @@
         <v>119</v>
       </c>
       <c r="I134" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M134" t="s">
-        <v>597</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D135" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G135">
         <v>70</v>
@@ -8563,45 +6943,33 @@
         <v>119</v>
       </c>
       <c r="I135" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M135" t="s">
-        <v>597</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D136" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G136">
         <v>70</v>
@@ -8610,45 +6978,33 @@
         <v>119</v>
       </c>
       <c r="I136" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J136" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M136" t="s">
-        <v>597</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D137" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G137">
         <v>70</v>
@@ -8657,45 +7013,33 @@
         <v>119</v>
       </c>
       <c r="I137" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J137" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M137" t="s">
-        <v>597</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G138">
         <v>70</v>
@@ -8704,45 +7048,33 @@
         <v>119</v>
       </c>
       <c r="I138" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J138" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M138" t="s">
-        <v>597</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D139" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G139">
         <v>70</v>
@@ -8751,25 +7083,13 @@
         <v>119</v>
       </c>
       <c r="I139" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J139" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M139" t="s">
-        <v>597</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p1.xlsx
+++ b/files/separadas/repeat_p1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="596">
   <si>
     <t>p1_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>005 de 2020</t>
@@ -2209,13 +2212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,25 +2264,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2288,33 +2294,36 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="M2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2323,33 +2332,36 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2358,33 +2370,36 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2393,33 +2408,36 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2428,33 +2446,36 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2463,33 +2484,36 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2498,33 +2522,36 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2533,33 +2560,36 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2568,33 +2598,36 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2603,33 +2636,36 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2638,33 +2674,36 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2673,33 +2712,36 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2708,33 +2750,36 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -2743,33 +2788,36 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>594</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2778,33 +2826,36 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2813,33 +2864,36 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2848,33 +2902,36 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -2883,33 +2940,36 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2918,33 +2978,36 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -2953,33 +3016,36 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -2988,33 +3054,36 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3023,33 +3092,36 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3058,33 +3130,36 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -3093,33 +3168,36 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M25" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -3128,33 +3206,36 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M26" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -3163,33 +3244,36 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M27" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -3198,33 +3282,36 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J28" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3233,33 +3320,36 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -3268,33 +3358,36 @@
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J30" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M30" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -3303,33 +3396,36 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -3338,33 +3434,36 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3373,33 +3472,36 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -3408,33 +3510,36 @@
         <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J34" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M34" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -3443,33 +3548,36 @@
         <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J35" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M35" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G36">
         <v>14</v>
@@ -3478,33 +3586,36 @@
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J36" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -3513,33 +3624,36 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G38">
         <v>17</v>
@@ -3548,33 +3662,36 @@
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J38" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M38" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G39">
         <v>18</v>
@@ -3583,33 +3700,36 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J39" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M39" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G40">
         <v>19</v>
@@ -3618,33 +3738,36 @@
         <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J40" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M40" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -3653,33 +3776,36 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -3688,33 +3814,36 @@
         <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J42" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M42" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G43">
         <v>20</v>
@@ -3723,33 +3852,36 @@
         <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J43" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M43" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G44">
         <v>21</v>
@@ -3758,33 +3890,36 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J44" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M44" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G45">
         <v>22</v>
@@ -3793,33 +3928,36 @@
         <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J45" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M45" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G46">
         <v>23</v>
@@ -3828,33 +3966,36 @@
         <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M46" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G47">
         <v>23</v>
@@ -3863,33 +4004,36 @@
         <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M47" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D48" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G48">
         <v>23</v>
@@ -3898,33 +4042,36 @@
         <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M48" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -3933,33 +4080,36 @@
         <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M49" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G50">
         <v>24</v>
@@ -3968,33 +4118,36 @@
         <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M50" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -4003,33 +4156,36 @@
         <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M51" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G52">
         <v>24</v>
@@ -4038,33 +4194,36 @@
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M52" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G53">
         <v>24</v>
@@ -4073,33 +4232,36 @@
         <v>51</v>
       </c>
       <c r="I53" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J53" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M53" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D54" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G54">
         <v>24</v>
@@ -4108,33 +4270,36 @@
         <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J54" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M54" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G55">
         <v>24</v>
@@ -4143,33 +4308,36 @@
         <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J55" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M55" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G56">
         <v>26</v>
@@ -4178,33 +4346,36 @@
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J56" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G57">
         <v>26</v>
@@ -4213,33 +4384,36 @@
         <v>55</v>
       </c>
       <c r="I57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J57" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G58">
         <v>27</v>
@@ -4248,33 +4422,36 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J58" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M58" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G59">
         <v>27</v>
@@ -4283,33 +4460,36 @@
         <v>56</v>
       </c>
       <c r="I59" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J59" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M59" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G60">
         <v>28</v>
@@ -4318,33 +4498,36 @@
         <v>57</v>
       </c>
       <c r="I60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J60" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M60" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G61">
         <v>28</v>
@@ -4353,33 +4536,36 @@
         <v>57</v>
       </c>
       <c r="I61" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J61" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M61" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D62" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G62">
         <v>28</v>
@@ -4388,33 +4574,36 @@
         <v>57</v>
       </c>
       <c r="I62" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J62" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M62" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G63">
         <v>29</v>
@@ -4423,33 +4612,36 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J63" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D64" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -4458,33 +4650,36 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D65" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -4493,33 +4688,36 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G66">
         <v>30</v>
@@ -4528,33 +4726,36 @@
         <v>59</v>
       </c>
       <c r="I66" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J66" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M66" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -4563,33 +4764,36 @@
         <v>59</v>
       </c>
       <c r="I67" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J67" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M67" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D68" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G68">
         <v>30</v>
@@ -4598,33 +4802,36 @@
         <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J68" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M68" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -4633,33 +4840,36 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -4668,33 +4878,36 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -4703,33 +4916,36 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G72">
         <v>31</v>
@@ -4738,33 +4954,36 @@
         <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J72" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M72" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G73">
         <v>31</v>
@@ -4773,33 +4992,36 @@
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J73" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M73" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D74" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G74">
         <v>32</v>
@@ -4808,33 +5030,36 @@
         <v>61</v>
       </c>
       <c r="I74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J74" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M74" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D75" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G75">
         <v>32</v>
@@ -4843,33 +5068,36 @@
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J75" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M75" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D76" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G76">
         <v>32</v>
@@ -4878,33 +5106,36 @@
         <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J76" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M76" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D77" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G77">
         <v>32</v>
@@ -4913,33 +5144,36 @@
         <v>61</v>
       </c>
       <c r="I77" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J77" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M77" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G78">
         <v>33</v>
@@ -4948,33 +5182,36 @@
         <v>63</v>
       </c>
       <c r="I78" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J78" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M78" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D79" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G79">
         <v>33</v>
@@ -4983,33 +5220,36 @@
         <v>63</v>
       </c>
       <c r="I79" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J79" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M79" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G80">
         <v>33</v>
@@ -5018,33 +5258,36 @@
         <v>63</v>
       </c>
       <c r="I80" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J80" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M80" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G81">
         <v>33</v>
@@ -5053,33 +5296,36 @@
         <v>63</v>
       </c>
       <c r="I81" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J81" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M81" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G82">
         <v>33</v>
@@ -5088,33 +5334,36 @@
         <v>63</v>
       </c>
       <c r="I82" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J82" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M82" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D83" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G83">
         <v>34</v>
@@ -5123,33 +5372,36 @@
         <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J83" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M83" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G84">
         <v>34</v>
@@ -5158,33 +5410,36 @@
         <v>64</v>
       </c>
       <c r="I84" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J84" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M84" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G85">
         <v>36</v>
@@ -5193,33 +5448,36 @@
         <v>77</v>
       </c>
       <c r="I85" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J85" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M85" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G86">
         <v>37</v>
@@ -5228,33 +5486,36 @@
         <v>78</v>
       </c>
       <c r="I86" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J86" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M86" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G87">
         <v>37</v>
@@ -5263,33 +5524,36 @@
         <v>78</v>
       </c>
       <c r="I87" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J87" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M87" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G88">
         <v>38</v>
@@ -5298,33 +5562,36 @@
         <v>80</v>
       </c>
       <c r="I88" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J88" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M88" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G89">
         <v>39</v>
@@ -5333,33 +5600,36 @@
         <v>81</v>
       </c>
       <c r="I89" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J89" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M89" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G90">
         <v>41</v>
@@ -5368,33 +5638,36 @@
         <v>83</v>
       </c>
       <c r="I90" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J90" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M90" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G91">
         <v>42</v>
@@ -5403,33 +5676,36 @@
         <v>84</v>
       </c>
       <c r="I91" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J91" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M91" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G92">
         <v>42</v>
@@ -5438,33 +5714,36 @@
         <v>84</v>
       </c>
       <c r="I92" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J92" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M92" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G93">
         <v>44</v>
@@ -5473,33 +5752,36 @@
         <v>87</v>
       </c>
       <c r="I93" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J93" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M93" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G94">
         <v>44</v>
@@ -5508,33 +5790,36 @@
         <v>87</v>
       </c>
       <c r="I94" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J94" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M94" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G95">
         <v>44</v>
@@ -5543,33 +5828,36 @@
         <v>87</v>
       </c>
       <c r="I95" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J95" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M95" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G96">
         <v>44</v>
@@ -5578,33 +5866,36 @@
         <v>87</v>
       </c>
       <c r="I96" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J96" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M96" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G97">
         <v>45</v>
@@ -5613,33 +5904,36 @@
         <v>88</v>
       </c>
       <c r="I97" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J97" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M97" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G98">
         <v>45</v>
@@ -5648,33 +5942,36 @@
         <v>88</v>
       </c>
       <c r="I98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J98" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M98" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G99">
         <v>45</v>
@@ -5683,33 +5980,36 @@
         <v>88</v>
       </c>
       <c r="I99" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J99" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M99" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G100">
         <v>45</v>
@@ -5718,33 +6018,36 @@
         <v>88</v>
       </c>
       <c r="I100" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J100" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M100" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G101">
         <v>45</v>
@@ -5753,33 +6056,36 @@
         <v>88</v>
       </c>
       <c r="I101" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J101" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M101" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G102">
         <v>46</v>
@@ -5788,33 +6094,36 @@
         <v>90</v>
       </c>
       <c r="I102" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J102" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M102" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D103" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G103">
         <v>46</v>
@@ -5823,33 +6132,36 @@
         <v>90</v>
       </c>
       <c r="I103" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J103" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M103" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G104">
         <v>46</v>
@@ -5858,33 +6170,36 @@
         <v>90</v>
       </c>
       <c r="I104" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J104" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M104" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D105" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G105">
         <v>46</v>
@@ -5893,33 +6208,36 @@
         <v>90</v>
       </c>
       <c r="I105" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J105" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M105" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D106" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G106">
         <v>47</v>
@@ -5928,33 +6246,36 @@
         <v>91</v>
       </c>
       <c r="I106" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J106" s="2">
         <v>45043.91625</v>
       </c>
       <c r="M106" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G107">
         <v>48</v>
@@ -5963,33 +6284,36 @@
         <v>92</v>
       </c>
       <c r="I107" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J107" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M107" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D108" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G108">
         <v>48</v>
@@ -5998,33 +6322,36 @@
         <v>92</v>
       </c>
       <c r="I108" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J108" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M108" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D109" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G109">
         <v>49</v>
@@ -6033,33 +6360,36 @@
         <v>93</v>
       </c>
       <c r="I109" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J109" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M109" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G110">
         <v>50</v>
@@ -6068,33 +6398,36 @@
         <v>94</v>
       </c>
       <c r="I110" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J110" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M110" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G111">
         <v>51</v>
@@ -6103,33 +6436,36 @@
         <v>95</v>
       </c>
       <c r="I111" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J111" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M111" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G112">
         <v>51</v>
@@ -6138,33 +6474,36 @@
         <v>95</v>
       </c>
       <c r="I112" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J112" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M112" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G113">
         <v>51</v>
@@ -6173,33 +6512,36 @@
         <v>95</v>
       </c>
       <c r="I113" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J113" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M113" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G114">
         <v>53</v>
@@ -6208,33 +6550,36 @@
         <v>98</v>
       </c>
       <c r="I114" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J114" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M114" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D115" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G115">
         <v>54</v>
@@ -6243,33 +6588,36 @@
         <v>99</v>
       </c>
       <c r="I115" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J115" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M115" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D116" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G116">
         <v>55</v>
@@ -6278,33 +6626,36 @@
         <v>100</v>
       </c>
       <c r="I116" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J116" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M116" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D117" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G117">
         <v>56</v>
@@ -6313,33 +6664,36 @@
         <v>101</v>
       </c>
       <c r="I117" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J117" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M117" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G118">
         <v>57</v>
@@ -6348,33 +6702,36 @@
         <v>102</v>
       </c>
       <c r="I118" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J118" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M118" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D119" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G119">
         <v>57</v>
@@ -6383,33 +6740,36 @@
         <v>102</v>
       </c>
       <c r="I119" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J119" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M119" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D120" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G120">
         <v>58</v>
@@ -6418,33 +6778,36 @@
         <v>103</v>
       </c>
       <c r="I120" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J120" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M120" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D121" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G121">
         <v>59</v>
@@ -6453,33 +6816,36 @@
         <v>104</v>
       </c>
       <c r="I121" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J121" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M121" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G122">
         <v>60</v>
@@ -6488,33 +6854,36 @@
         <v>105</v>
       </c>
       <c r="I122" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J122" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M122" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D123" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G123">
         <v>64</v>
@@ -6523,33 +6892,36 @@
         <v>111</v>
       </c>
       <c r="I123" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J123" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M123" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D124" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G124">
         <v>65</v>
@@ -6558,33 +6930,36 @@
         <v>113</v>
       </c>
       <c r="I124" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J124" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M124" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D125" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G125">
         <v>67</v>
@@ -6593,33 +6968,36 @@
         <v>115</v>
       </c>
       <c r="I125" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J125" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M125" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>595</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D126" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G126">
         <v>69</v>
@@ -6628,33 +7006,36 @@
         <v>118</v>
       </c>
       <c r="I126" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J126" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M126" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D127" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G127">
         <v>70</v>
@@ -6663,33 +7044,36 @@
         <v>119</v>
       </c>
       <c r="I127" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M127" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D128" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G128">
         <v>70</v>
@@ -6698,33 +7082,36 @@
         <v>119</v>
       </c>
       <c r="I128" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M128" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D129" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G129">
         <v>70</v>
@@ -6733,33 +7120,36 @@
         <v>119</v>
       </c>
       <c r="I129" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M129" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D130" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G130">
         <v>70</v>
@@ -6768,33 +7158,36 @@
         <v>119</v>
       </c>
       <c r="I130" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M130" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D131" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G131">
         <v>70</v>
@@ -6803,33 +7196,36 @@
         <v>119</v>
       </c>
       <c r="I131" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M131" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D132" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G132">
         <v>70</v>
@@ -6838,33 +7234,36 @@
         <v>119</v>
       </c>
       <c r="I132" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M132" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D133" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G133">
         <v>70</v>
@@ -6873,33 +7272,36 @@
         <v>119</v>
       </c>
       <c r="I133" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M133" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D134" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G134">
         <v>70</v>
@@ -6908,33 +7310,36 @@
         <v>119</v>
       </c>
       <c r="I134" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M134" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D135" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G135">
         <v>70</v>
@@ -6943,33 +7348,36 @@
         <v>119</v>
       </c>
       <c r="I135" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M135" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D136" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G136">
         <v>70</v>
@@ -6978,33 +7386,36 @@
         <v>119</v>
       </c>
       <c r="I136" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J136" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M136" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C137" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D137" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G137">
         <v>70</v>
@@ -7013,33 +7424,36 @@
         <v>119</v>
       </c>
       <c r="I137" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J137" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M137" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D138" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G138">
         <v>70</v>
@@ -7048,33 +7462,36 @@
         <v>119</v>
       </c>
       <c r="I138" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J138" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M138" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>594</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D139" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G139">
         <v>70</v>
@@ -7083,13 +7500,16 @@
         <v>119</v>
       </c>
       <c r="I139" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J139" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M139" t="s">
-        <v>593</v>
+        <v>594</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
